--- a/data/trans_orig/P70B_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8852</v>
+        <v>9519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01573133229968417</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05022524826511991</v>
+        <v>0.05401092168392629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>8986</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5001</v>
+        <v>4880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14987</v>
+        <v>15270</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05292505419120099</v>
+        <v>0.05292505419120096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02945728442020269</v>
+        <v>0.02874349792211397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08826868370756082</v>
+        <v>0.08993782593205599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>11758</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6870</v>
+        <v>6418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19629</v>
+        <v>19604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03398157320480873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01985413876373394</v>
+        <v>0.01854753937978755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0567281114849261</v>
+        <v>0.0566548062429338</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13085</v>
+        <v>12687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31546</v>
+        <v>31518</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1187756727449225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07424804084377229</v>
+        <v>0.07198655499474739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.179000323908631</v>
+        <v>0.1788393110481979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -833,19 +833,19 @@
         <v>22815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15297</v>
+        <v>15703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31616</v>
+        <v>32486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1343725365046499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09009682616426329</v>
+        <v>0.09248882029304915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1862109348373558</v>
+        <v>0.1913312840732952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -854,19 +854,19 @@
         <v>43747</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31664</v>
+        <v>31128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57058</v>
+        <v>56557</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1264287525256893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09150716328893405</v>
+        <v>0.08995832677291606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1648952972751024</v>
+        <v>0.1634489014412361</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>116380</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100342</v>
+        <v>102640</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130276</v>
+        <v>131224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6603593609979087</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.569356144548434</v>
+        <v>0.5823957916379476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7392112441443981</v>
+        <v>0.7445899219402906</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -904,19 +904,19 @@
         <v>101275</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89237</v>
+        <v>89409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113091</v>
+        <v>114003</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.596483335952351</v>
+        <v>0.5964833359523509</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5255814279685157</v>
+        <v>0.5265928914045621</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6660759123525238</v>
+        <v>0.6714479772313326</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -925,19 +925,19 @@
         <v>217655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198809</v>
+        <v>196530</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>236302</v>
+        <v>235538</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6290166293255217</v>
+        <v>0.6290166293255218</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5745535342525433</v>
+        <v>0.5679671143395546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.682907229108461</v>
+        <v>0.6806994683906458</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>36152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23771</v>
+        <v>23883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51514</v>
+        <v>51704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2051336339574845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1348827824661864</v>
+        <v>0.1355188316601687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2923008832887089</v>
+        <v>0.2933783311362242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -975,19 +975,19 @@
         <v>36711</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27611</v>
+        <v>27448</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47567</v>
+        <v>48267</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2162190733517982</v>
+        <v>0.2162190733517981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1626192181508408</v>
+        <v>0.1616592717866156</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2801577187833835</v>
+        <v>0.2842816294105081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -996,19 +996,19 @@
         <v>72863</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56713</v>
+        <v>56950</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90690</v>
+        <v>91963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2105730449439802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1638985891611435</v>
+        <v>0.1645840917442118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2620907161519239</v>
+        <v>0.265770417379368</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>15395</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8127</v>
+        <v>8355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29204</v>
+        <v>28786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03041889196200124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01605906728782221</v>
+        <v>0.01650774527407468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05770430962960691</v>
+        <v>0.05687865049795349</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1121,19 +1121,19 @@
         <v>5207</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2204</v>
+        <v>2175</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10941</v>
+        <v>10703</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.01451684160869106</v>
+        <v>0.01451684160869107</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006145690404265105</v>
+        <v>0.006064602990848639</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03050437399901035</v>
+        <v>0.02984159979035419</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1142,19 +1142,19 @@
         <v>20601</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12194</v>
+        <v>11946</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32938</v>
+        <v>36664</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02382350288883497</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01410125178261989</v>
+        <v>0.01381406438635861</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03808918568706991</v>
+        <v>0.0423976559752515</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>88737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70193</v>
+        <v>69135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112111</v>
+        <v>109695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1753371535856038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1386948191872181</v>
+        <v>0.1366052198910473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2215202809732797</v>
+        <v>0.2167466148991242</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1192,19 +1192,19 @@
         <v>65183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52313</v>
+        <v>52436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78814</v>
+        <v>78975</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1817408931886601</v>
+        <v>0.18174089318866</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1458591748890432</v>
+        <v>0.1462004055225875</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2197479813310534</v>
+        <v>0.220197028655798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -1213,19 +1213,19 @@
         <v>153920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132966</v>
+        <v>129223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181517</v>
+        <v>181050</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1779931100985705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1537618393740761</v>
+        <v>0.1494330238505295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.209906256055352</v>
+        <v>0.209366190649704</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>324639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297441</v>
+        <v>297479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349572</v>
+        <v>349594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.641457201572589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5877158649334275</v>
+        <v>0.5877916428027636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.690722964435653</v>
+        <v>0.6907654629036397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -1263,19 +1263,19 @@
         <v>227816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>210853</v>
+        <v>209778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245413</v>
+        <v>244528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6351931390918405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5878955643719509</v>
+        <v>0.5848994374687272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.684256451782186</v>
+        <v>0.6817865340348663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>567</v>
@@ -1284,19 +1284,19 @@
         <v>552456</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>522704</v>
+        <v>520666</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>581244</v>
+        <v>583320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6388591762663391</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6044544821870548</v>
+        <v>0.6020969349604716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6721491226462039</v>
+        <v>0.6745505773828538</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>77325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59350</v>
+        <v>59540</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98086</v>
+        <v>98467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.152786752879806</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.117270020349157</v>
+        <v>0.1176458172642722</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1938082078013644</v>
+        <v>0.1945609466386816</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -1334,19 +1334,19 @@
         <v>60451</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49118</v>
+        <v>49126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74045</v>
+        <v>73270</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1685491261108083</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1369507346079381</v>
+        <v>0.136972180352763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2064510571124091</v>
+        <v>0.2042908153622831</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>139</v>
@@ -1355,19 +1355,19 @@
         <v>137776</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>116278</v>
+        <v>114302</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>162708</v>
+        <v>163027</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1593242107462553</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.13446325285119</v>
+        <v>0.1321781422899718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1881549823576999</v>
+        <v>0.1885241516987075</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>20514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11656</v>
+        <v>12138</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31860</v>
+        <v>33594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03277919783610678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01862495654960947</v>
+        <v>0.01939550243466453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05090767262244576</v>
+        <v>0.05367859888272387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1480,19 +1480,19 @@
         <v>10808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18440</v>
+        <v>18102</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02218961020555342</v>
+        <v>0.02218961020555341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01318873671821777</v>
+        <v>0.01318783893640533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03785819249183549</v>
+        <v>0.03716420287076245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1501,19 +1501,19 @@
         <v>31322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21425</v>
+        <v>20981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44208</v>
+        <v>45014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02814459467585375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01925144482730705</v>
+        <v>0.01885272527647717</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03972247016367855</v>
+        <v>0.04044704003046588</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>64698</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48927</v>
+        <v>50885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>84718</v>
+        <v>84834</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1033774318990628</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07817862278212639</v>
+        <v>0.08130619515556084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1353673652116604</v>
+        <v>0.1355525834219865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>68</v>
@@ -1551,19 +1551,19 @@
         <v>51340</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40728</v>
+        <v>39572</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64419</v>
+        <v>64306</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1054054780073697</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08361766079845565</v>
+        <v>0.0812448260001153</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1322569588463225</v>
+        <v>0.1320252326530115</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -1572,19 +1572,19 @@
         <v>116038</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>97118</v>
+        <v>97780</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>137539</v>
+        <v>138824</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1042650197099025</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08726486732440081</v>
+        <v>0.08785930587251257</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1235846488814195</v>
+        <v>0.1247398407855118</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>424273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>398763</v>
+        <v>396087</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>449732</v>
+        <v>451371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6779276166965049</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6371665974418297</v>
+        <v>0.6328913159070856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7186077363841232</v>
+        <v>0.7212262011371493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>466</v>
@@ -1622,19 +1622,19 @@
         <v>332552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314566</v>
+        <v>314257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>351537</v>
+        <v>350482</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6827567701878828</v>
+        <v>0.6827567701878826</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6458295178051447</v>
+        <v>0.6451955271645861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7217346579131734</v>
+        <v>0.7195684088227846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>851</v>
@@ -1643,19 +1643,19 @@
         <v>756825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>726410</v>
+        <v>727239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>787414</v>
+        <v>788205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6800411277049895</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6527120320955198</v>
+        <v>0.6534565904135637</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7075260769377013</v>
+        <v>0.70823712602999</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>116353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97059</v>
+        <v>93771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140247</v>
+        <v>139389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1859157535683254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.155086961414517</v>
+        <v>0.1498319688126714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2240955324442518</v>
+        <v>0.2227237432349817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>120</v>
@@ -1693,19 +1693,19 @@
         <v>92372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76324</v>
+        <v>76613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108251</v>
+        <v>110397</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1896481415991942</v>
+        <v>0.1896481415991941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1566984578117279</v>
+        <v>0.1572920553678129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2222480490306211</v>
+        <v>0.2266542688733556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>216</v>
@@ -1714,19 +1714,19 @@
         <v>208726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182274</v>
+        <v>181910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>236495</v>
+        <v>236108</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1875492579092542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1637811441554713</v>
+        <v>0.1634538589549589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2125010805241429</v>
+        <v>0.2121537527543802</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>14783</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8807</v>
+        <v>7681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26076</v>
+        <v>25678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02502231320858937</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01490765995828514</v>
+        <v>0.01300143801243966</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04413724895367122</v>
+        <v>0.04346461052085897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1839,19 +1839,19 @@
         <v>9424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4861</v>
+        <v>4879</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15898</v>
+        <v>16808</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02020047170505701</v>
+        <v>0.020200471705057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01041951273688048</v>
+        <v>0.01045780651303006</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03407938900658716</v>
+        <v>0.0360296642195259</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1860,19 +1860,19 @@
         <v>24206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15813</v>
+        <v>15904</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36211</v>
+        <v>36689</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02289478182734987</v>
+        <v>0.02289478182734986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01495616729218345</v>
+        <v>0.0150420147563047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03424916541588043</v>
+        <v>0.03470105991493903</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>50372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34488</v>
+        <v>36019</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68593</v>
+        <v>71108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08526289666659899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05837600004403745</v>
+        <v>0.06096767184172312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1161049513250671</v>
+        <v>0.1203622997572632</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1910,19 +1910,19 @@
         <v>42439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32053</v>
+        <v>31598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56167</v>
+        <v>55631</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09097163020866172</v>
+        <v>0.09097163020866171</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06870778703038341</v>
+        <v>0.06773356131938525</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1203991685089803</v>
+        <v>0.1192511137526262</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -1931,19 +1931,19 @@
         <v>92811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>74304</v>
+        <v>75229</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113908</v>
+        <v>116021</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08778174962951275</v>
+        <v>0.08778174962951273</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07027821824263197</v>
+        <v>0.07115262142587959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1077358435692249</v>
+        <v>0.1097340309985967</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>264583</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>236449</v>
+        <v>237794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>291778</v>
+        <v>290387</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4478518961509523</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4002300539868192</v>
+        <v>0.4025072392756323</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4938827845301096</v>
+        <v>0.4915282258308887</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>333</v>
@@ -1981,19 +1981,19 @@
         <v>228605</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>207885</v>
+        <v>211091</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>247003</v>
+        <v>249873</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4900367543694914</v>
+        <v>0.4900367543694913</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4456221419201151</v>
+        <v>0.4524955069778071</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5294764189574986</v>
+        <v>0.5356285109134358</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>581</v>
@@ -2002,19 +2002,19 @@
         <v>493188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>463173</v>
+        <v>459681</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>528009</v>
+        <v>528421</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4664650358834244</v>
+        <v>0.4664650358834243</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4380758656151455</v>
+        <v>0.434773345284132</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4993990526666016</v>
+        <v>0.499788401513066</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>261045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>233151</v>
+        <v>235752</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>288497</v>
+        <v>292270</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4418628939738594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3946478823546355</v>
+        <v>0.3990492489774859</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4883301411969446</v>
+        <v>0.4947159365872084</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>251</v>
@@ -2052,19 +2052,19 @@
         <v>186038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168152</v>
+        <v>167486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>206676</v>
+        <v>205068</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.39879114371679</v>
+        <v>0.3987911437167899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.360451477042628</v>
+        <v>0.3590233551127208</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4430312271283558</v>
+        <v>0.4395844615585968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>472</v>
@@ -2073,19 +2073,19 @@
         <v>447084</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>413595</v>
+        <v>414036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>480579</v>
+        <v>478812</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4228584326597131</v>
+        <v>0.422858432659713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3911844545918863</v>
+        <v>0.3916012441205869</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.454539023069086</v>
+        <v>0.4528675389172999</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>53465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38504</v>
+        <v>39317</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72570</v>
+        <v>74237</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0281547384523448</v>
+        <v>0.02815473845234479</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02027660715688883</v>
+        <v>0.02070470417762455</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03821597857562658</v>
+        <v>0.03909382390804605</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2198,19 +2198,19 @@
         <v>34424</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25062</v>
+        <v>25851</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45324</v>
+        <v>44628</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02322781536566961</v>
+        <v>0.02322781536566962</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01691094354368628</v>
+        <v>0.01744293606063727</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03058263907608685</v>
+        <v>0.03011314079925379</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -2219,19 +2219,19 @@
         <v>87889</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71478</v>
+        <v>71314</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110754</v>
+        <v>111224</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02599506340231094</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02114109852947318</v>
+        <v>0.02109259704818635</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03275784143123801</v>
+        <v>0.03289713210704815</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>224740</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>190872</v>
+        <v>193927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>258830</v>
+        <v>261503</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1183491080394074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1005144803231558</v>
+        <v>0.1021229531319896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1363012803547226</v>
+        <v>0.1377087667118715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>231</v>
@@ -2269,19 +2269,19 @@
         <v>181776</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>158732</v>
+        <v>160418</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206434</v>
+        <v>206218</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.122654222565225</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1071049393572852</v>
+        <v>0.1082425941065426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.139292021421347</v>
+        <v>0.139146003005885</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -2290,19 +2290,19 @@
         <v>406516</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>368929</v>
+        <v>368349</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>447812</v>
+        <v>450637</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1202362185676988</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.109118975218665</v>
+        <v>0.1089474183826042</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1324505343137941</v>
+        <v>0.133286091958532</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1129875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1084912</v>
+        <v>1078765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1181410</v>
+        <v>1181031</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.594998496380484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.571321054556385</v>
+        <v>0.5680836494092159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6221374016442478</v>
+        <v>0.6219375711547341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1210</v>
@@ -2340,19 +2340,19 @@
         <v>890249</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>853985</v>
+        <v>859156</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>924006</v>
+        <v>923627</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6006985901745542</v>
+        <v>0.6006985901745543</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5762292467415581</v>
+        <v>0.5797180980727398</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6234758692980257</v>
+        <v>0.623220263277067</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2220</v>
@@ -2361,19 +2361,19 @@
         <v>2020124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1964261</v>
+        <v>1960088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2079715</v>
+        <v>2073785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5974970842685717</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5809743466594831</v>
+        <v>0.5797400304482712</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6151225211555156</v>
+        <v>0.6133685901116114</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>490875</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>445998</v>
+        <v>448175</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>532083</v>
+        <v>535617</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2584976571277638</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2348651234665248</v>
+        <v>0.2360112650172484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2801977231450418</v>
+        <v>0.2820587276567835</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>498</v>
@@ -2411,19 +2411,19 @@
         <v>375573</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>347140</v>
+        <v>344844</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>406927</v>
+        <v>406961</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2534193718945512</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2342335572573435</v>
+        <v>0.2326847590576775</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2745756024806822</v>
+        <v>0.2745980641437509</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>896</v>
@@ -2432,19 +2432,19 @@
         <v>866448</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>818031</v>
+        <v>817036</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>920976</v>
+        <v>921208</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2562716337614186</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2419509818526832</v>
+        <v>0.2416567265068627</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2723993538149356</v>
+        <v>0.2724680626961974</v>
       </c>
     </row>
     <row r="28">
